--- a/data/pca/factorExposure/factorExposure_2012-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-29.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01681971268449414</v>
+        <v>-0.01677714953704482</v>
       </c>
       <c r="C2">
-        <v>-0.03515757512358067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02897616110713676</v>
+      </c>
+      <c r="D2">
+        <v>-3.911268241887118e-05</v>
+      </c>
+      <c r="E2">
+        <v>0.008923770901884294</v>
+      </c>
+      <c r="F2">
+        <v>-0.008419823755682168</v>
+      </c>
+      <c r="G2">
+        <v>-0.007576677625033413</v>
+      </c>
+      <c r="H2">
+        <v>-0.0595024113890675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07501582223686261</v>
+        <v>-0.08850870099411427</v>
       </c>
       <c r="C4">
-        <v>-0.0544143438797595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03826280842066901</v>
+      </c>
+      <c r="D4">
+        <v>0.06578525069409134</v>
+      </c>
+      <c r="E4">
+        <v>0.01795428789714345</v>
+      </c>
+      <c r="F4">
+        <v>-0.02784781759355525</v>
+      </c>
+      <c r="G4">
+        <v>-0.008316174881025729</v>
+      </c>
+      <c r="H4">
+        <v>0.04006268034779333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1078434094885951</v>
+        <v>-0.1198417886508952</v>
       </c>
       <c r="C6">
-        <v>-0.05631802246688794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03361241773432357</v>
+      </c>
+      <c r="D6">
+        <v>0.00868307085116563</v>
+      </c>
+      <c r="E6">
+        <v>-0.004118502236695905</v>
+      </c>
+      <c r="F6">
+        <v>-0.06369249559680268</v>
+      </c>
+      <c r="G6">
+        <v>-0.03233379216079784</v>
+      </c>
+      <c r="H6">
+        <v>-0.09797708003406276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04939970261684146</v>
+        <v>-0.06482145646212342</v>
       </c>
       <c r="C7">
-        <v>-0.02775013488074022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01904571520763597</v>
+      </c>
+      <c r="D7">
+        <v>0.04543398288892531</v>
+      </c>
+      <c r="E7">
+        <v>0.04073293487220175</v>
+      </c>
+      <c r="F7">
+        <v>-0.03250826039687216</v>
+      </c>
+      <c r="G7">
+        <v>0.04083926276282252</v>
+      </c>
+      <c r="H7">
+        <v>0.01844415424652681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03747802269516856</v>
+        <v>-0.04114520638199025</v>
       </c>
       <c r="C8">
-        <v>-0.01223341640411585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007599329422696087</v>
+      </c>
+      <c r="D8">
+        <v>0.02110395381416306</v>
+      </c>
+      <c r="E8">
+        <v>0.03558953655479552</v>
+      </c>
+      <c r="F8">
+        <v>-0.04589663216514976</v>
+      </c>
+      <c r="G8">
+        <v>-0.04620027166186235</v>
+      </c>
+      <c r="H8">
+        <v>0.0004254496130324853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0676057814268832</v>
+        <v>-0.07992443482858319</v>
       </c>
       <c r="C9">
-        <v>-0.04495231245438559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02945752605793094</v>
+      </c>
+      <c r="D9">
+        <v>0.06355520345246521</v>
+      </c>
+      <c r="E9">
+        <v>0.04147594964280256</v>
+      </c>
+      <c r="F9">
+        <v>-0.02828048354073681</v>
+      </c>
+      <c r="G9">
+        <v>-0.007141231558302728</v>
+      </c>
+      <c r="H9">
+        <v>0.05179210260539196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02867966922515826</v>
+        <v>-0.03440874814937558</v>
       </c>
       <c r="C10">
-        <v>-0.03432116415245295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04180061976246844</v>
+      </c>
+      <c r="D10">
+        <v>-0.1708942914647653</v>
+      </c>
+      <c r="E10">
+        <v>0.05325348621862307</v>
+      </c>
+      <c r="F10">
+        <v>-0.04299204373151799</v>
+      </c>
+      <c r="G10">
+        <v>0.0409786927899838</v>
+      </c>
+      <c r="H10">
+        <v>-0.03465113928773596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07005065380510724</v>
+        <v>-0.07630046545422252</v>
       </c>
       <c r="C11">
-        <v>-0.0477098184335711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02747716083738333</v>
+      </c>
+      <c r="D11">
+        <v>0.06287579493461863</v>
+      </c>
+      <c r="E11">
+        <v>0.001267591078677131</v>
+      </c>
+      <c r="F11">
+        <v>-0.02299819686777182</v>
+      </c>
+      <c r="G11">
+        <v>0.006265305442672687</v>
+      </c>
+      <c r="H11">
+        <v>0.09745284536796922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05753164389389178</v>
+        <v>-0.06704785722945851</v>
       </c>
       <c r="C12">
-        <v>-0.05144173825117154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03554352377606298</v>
+      </c>
+      <c r="D12">
+        <v>0.04873937567042758</v>
+      </c>
+      <c r="E12">
+        <v>0.01656948199940854</v>
+      </c>
+      <c r="F12">
+        <v>-0.01566653183529401</v>
+      </c>
+      <c r="G12">
+        <v>0.001735497581149673</v>
+      </c>
+      <c r="H12">
+        <v>0.05427583825907523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05923273730718612</v>
+        <v>-0.06487861772529774</v>
       </c>
       <c r="C13">
-        <v>-0.04098261070228546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02494677359021666</v>
+      </c>
+      <c r="D13">
+        <v>0.04281958732016847</v>
+      </c>
+      <c r="E13">
+        <v>0.01451887461459175</v>
+      </c>
+      <c r="F13">
+        <v>-0.0003338256623315102</v>
+      </c>
+      <c r="G13">
+        <v>0.007564044512831949</v>
+      </c>
+      <c r="H13">
+        <v>0.05157933484888473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03225306286488017</v>
+        <v>-0.04124506020650844</v>
       </c>
       <c r="C14">
-        <v>-0.03197261811621207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0280346847079595</v>
+      </c>
+      <c r="D14">
+        <v>0.004487798721086924</v>
+      </c>
+      <c r="E14">
+        <v>0.033641885169956</v>
+      </c>
+      <c r="F14">
+        <v>-0.01000495254765295</v>
+      </c>
+      <c r="G14">
+        <v>-0.01077159880813302</v>
+      </c>
+      <c r="H14">
+        <v>0.0581403901853966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03895950885401474</v>
+        <v>-0.03992779290756466</v>
       </c>
       <c r="C15">
-        <v>-0.01034319430532082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002919089370352498</v>
+      </c>
+      <c r="D15">
+        <v>0.003278026284185702</v>
+      </c>
+      <c r="E15">
+        <v>0.04177076216083127</v>
+      </c>
+      <c r="F15">
+        <v>0.007468371376809711</v>
+      </c>
+      <c r="G15">
+        <v>-0.02823658279563993</v>
+      </c>
+      <c r="H15">
+        <v>0.04005942069325845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06064759097343367</v>
+        <v>-0.0703447052825712</v>
       </c>
       <c r="C16">
-        <v>-0.04311696239379915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02763393007822732</v>
+      </c>
+      <c r="D16">
+        <v>0.06271852461832113</v>
+      </c>
+      <c r="E16">
+        <v>0.01005871221698073</v>
+      </c>
+      <c r="F16">
+        <v>-0.02060668994031446</v>
+      </c>
+      <c r="G16">
+        <v>0.005741336519470699</v>
+      </c>
+      <c r="H16">
+        <v>0.06072225848051673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06413650948186354</v>
+        <v>-0.06339282477149209</v>
       </c>
       <c r="C20">
-        <v>-0.03261385228932768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01370072306424284</v>
+      </c>
+      <c r="D20">
+        <v>0.04005192893667109</v>
+      </c>
+      <c r="E20">
+        <v>0.03555939845588055</v>
+      </c>
+      <c r="F20">
+        <v>-0.01402959392230897</v>
+      </c>
+      <c r="G20">
+        <v>-0.01195448333419504</v>
+      </c>
+      <c r="H20">
+        <v>0.05235909777704408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02366083005662484</v>
+        <v>-0.02427837213464348</v>
       </c>
       <c r="C21">
-        <v>0.00255405326186913</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.00953723629041619</v>
+      </c>
+      <c r="D21">
+        <v>0.02690878276266572</v>
+      </c>
+      <c r="E21">
+        <v>0.0391325397776771</v>
+      </c>
+      <c r="F21">
+        <v>0.01417094472048064</v>
+      </c>
+      <c r="G21">
+        <v>-0.01256190403528524</v>
+      </c>
+      <c r="H21">
+        <v>-0.04327416531204217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07579234459237934</v>
+        <v>-0.07146438603549929</v>
       </c>
       <c r="C22">
-        <v>-0.05808266682877721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03650985834783532</v>
+      </c>
+      <c r="D22">
+        <v>0.06469354962556984</v>
+      </c>
+      <c r="E22">
+        <v>0.5548113100788458</v>
+      </c>
+      <c r="F22">
+        <v>0.2641398168257854</v>
+      </c>
+      <c r="G22">
+        <v>0.05825301793533003</v>
+      </c>
+      <c r="H22">
+        <v>-0.1762222081669728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0767904309712423</v>
+        <v>-0.07208319179374109</v>
       </c>
       <c r="C23">
-        <v>-0.05701096340458499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03521343377056785</v>
+      </c>
+      <c r="D23">
+        <v>0.06559931439468972</v>
+      </c>
+      <c r="E23">
+        <v>0.5543641471678856</v>
+      </c>
+      <c r="F23">
+        <v>0.2629728876740754</v>
+      </c>
+      <c r="G23">
+        <v>0.05663882120863344</v>
+      </c>
+      <c r="H23">
+        <v>-0.1713184473748508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07100101432200338</v>
+        <v>-0.08025646225149857</v>
       </c>
       <c r="C24">
-        <v>-0.05174507323974697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03343707482519875</v>
+      </c>
+      <c r="D24">
+        <v>0.05863270446128658</v>
+      </c>
+      <c r="E24">
+        <v>0.02113086096744357</v>
+      </c>
+      <c r="F24">
+        <v>-0.03052545441445043</v>
+      </c>
+      <c r="G24">
+        <v>-0.004184061722196931</v>
+      </c>
+      <c r="H24">
+        <v>0.06842340470882041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07076518169802169</v>
+        <v>-0.07762875304828505</v>
       </c>
       <c r="C25">
-        <v>-0.05742547721745455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03811281162933966</v>
+      </c>
+      <c r="D25">
+        <v>0.05141439447716215</v>
+      </c>
+      <c r="E25">
+        <v>0.02350709405131387</v>
+      </c>
+      <c r="F25">
+        <v>-0.02340274506904878</v>
+      </c>
+      <c r="G25">
+        <v>-0.01741190304808367</v>
+      </c>
+      <c r="H25">
+        <v>0.06865754234855841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04430451812717142</v>
+        <v>-0.04709890907280014</v>
       </c>
       <c r="C26">
-        <v>-0.009954917648729713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001576027123770032</v>
+      </c>
+      <c r="D26">
+        <v>0.01773720706529568</v>
+      </c>
+      <c r="E26">
+        <v>0.05460317659193236</v>
+      </c>
+      <c r="F26">
+        <v>-0.01707828166432971</v>
+      </c>
+      <c r="G26">
+        <v>0.00717589688379414</v>
+      </c>
+      <c r="H26">
+        <v>0.06075493234236139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05225554566299928</v>
+        <v>-0.06186992776181074</v>
       </c>
       <c r="C28">
-        <v>-0.07418051947813213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0834800915976537</v>
+      </c>
+      <c r="D28">
+        <v>-0.3073367702710709</v>
+      </c>
+      <c r="E28">
+        <v>0.02875982367501036</v>
+      </c>
+      <c r="F28">
+        <v>-0.05468564848604861</v>
+      </c>
+      <c r="G28">
+        <v>-0.03077270127108398</v>
+      </c>
+      <c r="H28">
+        <v>-0.03959132046480181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04053394843132955</v>
+        <v>-0.04853523249525827</v>
       </c>
       <c r="C29">
-        <v>-0.03228053347781382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02598037135810629</v>
+      </c>
+      <c r="D29">
+        <v>0.004400766102297386</v>
+      </c>
+      <c r="E29">
+        <v>0.0575148248466407</v>
+      </c>
+      <c r="F29">
+        <v>0.002889407303170319</v>
+      </c>
+      <c r="G29">
+        <v>0.005946306667377142</v>
+      </c>
+      <c r="H29">
+        <v>0.0864831111198671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1272108136619939</v>
+        <v>-0.132709629449648</v>
       </c>
       <c r="C30">
-        <v>-0.09583434239065362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06363502491095789</v>
+      </c>
+      <c r="D30">
+        <v>0.06983726331925846</v>
+      </c>
+      <c r="E30">
+        <v>0.08440867452910918</v>
+      </c>
+      <c r="F30">
+        <v>0.02666458450474436</v>
+      </c>
+      <c r="G30">
+        <v>-0.0724069973100724</v>
+      </c>
+      <c r="H30">
+        <v>-0.03119109735043619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04268919437939225</v>
+        <v>-0.04909108570554175</v>
       </c>
       <c r="C31">
-        <v>-0.02095787715250689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01268479332725421</v>
+      </c>
+      <c r="D31">
+        <v>0.02461410312542176</v>
+      </c>
+      <c r="E31">
+        <v>0.03111996378572265</v>
+      </c>
+      <c r="F31">
+        <v>-0.007504287563559778</v>
+      </c>
+      <c r="G31">
+        <v>0.02466187607678815</v>
+      </c>
+      <c r="H31">
+        <v>0.06507772170216497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03563127581473128</v>
+        <v>-0.03853543037448675</v>
       </c>
       <c r="C32">
-        <v>-0.02191022337130983</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01595290765421356</v>
+      </c>
+      <c r="D32">
+        <v>0.01095827188595047</v>
+      </c>
+      <c r="E32">
+        <v>0.06668570035570752</v>
+      </c>
+      <c r="F32">
+        <v>0.02218178134514355</v>
+      </c>
+      <c r="G32">
+        <v>-0.02913242665880898</v>
+      </c>
+      <c r="H32">
+        <v>0.06442427549608762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08178356595733319</v>
+        <v>-0.09538927480418465</v>
       </c>
       <c r="C33">
-        <v>-0.04475903979370167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02650152582607757</v>
+      </c>
+      <c r="D33">
+        <v>0.04969951113121482</v>
+      </c>
+      <c r="E33">
+        <v>0.01629872272352538</v>
+      </c>
+      <c r="F33">
+        <v>0.000966095063429797</v>
+      </c>
+      <c r="G33">
+        <v>0.01054708995839366</v>
+      </c>
+      <c r="H33">
+        <v>0.07295655514969399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05622179716908676</v>
+        <v>-0.06214266990370282</v>
       </c>
       <c r="C34">
-        <v>-0.02928637155067017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01337470047069928</v>
+      </c>
+      <c r="D34">
+        <v>0.05376700022806547</v>
+      </c>
+      <c r="E34">
+        <v>0.0121211476933127</v>
+      </c>
+      <c r="F34">
+        <v>-0.01406871865463127</v>
+      </c>
+      <c r="G34">
+        <v>-0.004867152300409501</v>
+      </c>
+      <c r="H34">
+        <v>0.06039406600017776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03667856545336783</v>
+        <v>-0.04008884484792444</v>
       </c>
       <c r="C35">
-        <v>-0.008568792930358131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002220776518288112</v>
+      </c>
+      <c r="D35">
+        <v>0.005966359419852866</v>
+      </c>
+      <c r="E35">
+        <v>0.01765901633593423</v>
+      </c>
+      <c r="F35">
+        <v>0.01621128304839065</v>
+      </c>
+      <c r="G35">
+        <v>0.01139227673932324</v>
+      </c>
+      <c r="H35">
+        <v>0.02897565232895466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0203809918202303</v>
+        <v>-0.02702944548627388</v>
       </c>
       <c r="C36">
-        <v>-0.01744279417933855</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01346278739664048</v>
+      </c>
+      <c r="D36">
+        <v>0.01199609451940062</v>
+      </c>
+      <c r="E36">
+        <v>0.04644909896318308</v>
+      </c>
+      <c r="F36">
+        <v>-0.01046354000296039</v>
+      </c>
+      <c r="G36">
+        <v>0.008751264725276865</v>
+      </c>
+      <c r="H36">
+        <v>0.04728899737895137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03931753161807836</v>
+        <v>-0.04378175956705461</v>
       </c>
       <c r="C38">
-        <v>-0.002615518392264787</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002716339050807159</v>
+      </c>
+      <c r="D38">
+        <v>0.01573257802039554</v>
+      </c>
+      <c r="E38">
+        <v>0.05458831621152706</v>
+      </c>
+      <c r="F38">
+        <v>0.01990491433764889</v>
+      </c>
+      <c r="G38">
+        <v>-0.01033051303564546</v>
+      </c>
+      <c r="H38">
+        <v>0.02439586784397799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08969015723894906</v>
+        <v>-0.1022037212952744</v>
       </c>
       <c r="C39">
-        <v>-0.07165965600114589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04928600610221085</v>
+      </c>
+      <c r="D39">
+        <v>0.06654632924940704</v>
+      </c>
+      <c r="E39">
+        <v>0.002627113973886774</v>
+      </c>
+      <c r="F39">
+        <v>-0.005644789344070217</v>
+      </c>
+      <c r="G39">
+        <v>-0.03658716427083907</v>
+      </c>
+      <c r="H39">
+        <v>0.07359550182617756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07359040503288114</v>
+        <v>-0.0717790446038844</v>
       </c>
       <c r="C40">
-        <v>-0.04025209544157397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01891262607443622</v>
+      </c>
+      <c r="D40">
+        <v>0.01125696170814908</v>
+      </c>
+      <c r="E40">
+        <v>0.01728090402124141</v>
+      </c>
+      <c r="F40">
+        <v>0.0560622046371614</v>
+      </c>
+      <c r="G40">
+        <v>-0.04194300067041816</v>
+      </c>
+      <c r="H40">
+        <v>-0.09267363953494136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04083478544538895</v>
+        <v>-0.0438765502779211</v>
       </c>
       <c r="C41">
-        <v>-0.006449210564968059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001599700501334407</v>
+      </c>
+      <c r="D41">
+        <v>0.03445522213327012</v>
+      </c>
+      <c r="E41">
+        <v>0.003266111436834176</v>
+      </c>
+      <c r="F41">
+        <v>0.01721342026869905</v>
+      </c>
+      <c r="G41">
+        <v>-0.01075768947440069</v>
+      </c>
+      <c r="H41">
+        <v>0.03779127277826085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04684041430760088</v>
+        <v>-0.05746608614579318</v>
       </c>
       <c r="C43">
-        <v>-0.02592178181922796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01689987834438657</v>
+      </c>
+      <c r="D43">
+        <v>0.02482010920298844</v>
+      </c>
+      <c r="E43">
+        <v>0.02104522151499131</v>
+      </c>
+      <c r="F43">
+        <v>-0.009571360276180605</v>
+      </c>
+      <c r="G43">
+        <v>0.01448567381959521</v>
+      </c>
+      <c r="H43">
+        <v>0.05548848483680296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09270739944975474</v>
+        <v>-0.09454907217376679</v>
       </c>
       <c r="C44">
-        <v>-0.09365374727123121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06412913050885097</v>
+      </c>
+      <c r="D44">
+        <v>0.06025768646406818</v>
+      </c>
+      <c r="E44">
+        <v>0.09836907587516835</v>
+      </c>
+      <c r="F44">
+        <v>-0.03175129251953373</v>
+      </c>
+      <c r="G44">
+        <v>-0.02990064857233125</v>
+      </c>
+      <c r="H44">
+        <v>0.01089975672348882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02522655391393488</v>
+        <v>-0.03302509808863545</v>
       </c>
       <c r="C46">
-        <v>-0.01413227897061967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01057065625549995</v>
+      </c>
+      <c r="D46">
+        <v>0.03052920828634851</v>
+      </c>
+      <c r="E46">
+        <v>0.03280656838459792</v>
+      </c>
+      <c r="F46">
+        <v>-0.01344287852671733</v>
+      </c>
+      <c r="G46">
+        <v>-0.003134454878878966</v>
+      </c>
+      <c r="H46">
+        <v>0.04085064355333637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03052831155500622</v>
+        <v>-0.03817999160153207</v>
       </c>
       <c r="C47">
-        <v>-0.02522818523759622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01967567590388292</v>
+      </c>
+      <c r="D47">
+        <v>0.009300441087488539</v>
+      </c>
+      <c r="E47">
+        <v>0.05160105952459049</v>
+      </c>
+      <c r="F47">
+        <v>-0.005337070046374995</v>
+      </c>
+      <c r="G47">
+        <v>0.03841295046470304</v>
+      </c>
+      <c r="H47">
+        <v>0.02723323027445227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03191060106483879</v>
+        <v>-0.03745747751061365</v>
       </c>
       <c r="C48">
-        <v>-0.01622253384584356</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009446165422224049</v>
+      </c>
+      <c r="D48">
+        <v>0.01904077192344582</v>
+      </c>
+      <c r="E48">
+        <v>0.04419288292038101</v>
+      </c>
+      <c r="F48">
+        <v>0.001735585941792723</v>
+      </c>
+      <c r="G48">
+        <v>-0.0115239240447147</v>
+      </c>
+      <c r="H48">
+        <v>0.05120031250054902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1608284677067585</v>
+        <v>-0.1904194210229578</v>
       </c>
       <c r="C49">
-        <v>-0.06518785384614638</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03577085905340712</v>
+      </c>
+      <c r="D49">
+        <v>0.03194622516255263</v>
+      </c>
+      <c r="E49">
+        <v>-0.1397625594362031</v>
+      </c>
+      <c r="F49">
+        <v>-0.08055699290678248</v>
+      </c>
+      <c r="G49">
+        <v>0.06023464844163257</v>
+      </c>
+      <c r="H49">
+        <v>-0.2544673699037679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03843762688667544</v>
+        <v>-0.04564915382703015</v>
       </c>
       <c r="C50">
-        <v>-0.02328085212305598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01609609806126258</v>
+      </c>
+      <c r="D50">
+        <v>0.02944556338814018</v>
+      </c>
+      <c r="E50">
+        <v>0.05527685635967733</v>
+      </c>
+      <c r="F50">
+        <v>-0.006816431264762947</v>
+      </c>
+      <c r="G50">
+        <v>0.02034813220083229</v>
+      </c>
+      <c r="H50">
+        <v>0.06157546325080403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02600903611051817</v>
+        <v>-0.02936523375351482</v>
       </c>
       <c r="C51">
-        <v>-0.007784372907211789</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.003673272914902101</v>
+      </c>
+      <c r="D51">
+        <v>0.01496399301084034</v>
+      </c>
+      <c r="E51">
+        <v>0.01621757464468242</v>
+      </c>
+      <c r="F51">
+        <v>-0.0177782594039142</v>
+      </c>
+      <c r="G51">
+        <v>-0.002125315906320892</v>
+      </c>
+      <c r="H51">
+        <v>-0.002915290600159819</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1521812100695605</v>
+        <v>-0.1623893381690292</v>
       </c>
       <c r="C53">
-        <v>-0.0832944057721161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05323248446631056</v>
+      </c>
+      <c r="D53">
+        <v>0.01792712363907866</v>
+      </c>
+      <c r="E53">
+        <v>-0.02320949278792455</v>
+      </c>
+      <c r="F53">
+        <v>-0.02004499116077826</v>
+      </c>
+      <c r="G53">
+        <v>0.005632766378065023</v>
+      </c>
+      <c r="H53">
+        <v>0.1543150520865074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05601761520232922</v>
+        <v>-0.05788668096145269</v>
       </c>
       <c r="C54">
-        <v>-0.02499508547457348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01252272322758282</v>
+      </c>
+      <c r="D54">
+        <v>0.01547342136891509</v>
+      </c>
+      <c r="E54">
+        <v>0.05321740800208541</v>
+      </c>
+      <c r="F54">
+        <v>-0.0001814023772392657</v>
+      </c>
+      <c r="G54">
+        <v>-0.01071301185103465</v>
+      </c>
+      <c r="H54">
+        <v>0.0550863542877731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1004141754460269</v>
+        <v>-0.1039186854793021</v>
       </c>
       <c r="C55">
-        <v>-0.05898221128280096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.0367205800678633</v>
+      </c>
+      <c r="D55">
+        <v>0.02340363414253189</v>
+      </c>
+      <c r="E55">
+        <v>0.01974816941177599</v>
+      </c>
+      <c r="F55">
+        <v>-0.01358670931956336</v>
+      </c>
+      <c r="G55">
+        <v>-0.001959751189863271</v>
+      </c>
+      <c r="H55">
+        <v>0.1368044407621684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1465563589036325</v>
+        <v>-0.1598091373582524</v>
       </c>
       <c r="C56">
-        <v>-0.09460260302419254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06452746334295281</v>
+      </c>
+      <c r="D56">
+        <v>0.02053996199022888</v>
+      </c>
+      <c r="E56">
+        <v>-0.02137690732711283</v>
+      </c>
+      <c r="F56">
+        <v>-0.03671188419792021</v>
+      </c>
+      <c r="G56">
+        <v>0.01472404835325434</v>
+      </c>
+      <c r="H56">
+        <v>0.1586332891530129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1215665066489344</v>
+        <v>-0.09762397908703406</v>
       </c>
       <c r="C58">
-        <v>-0.007475501346483125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03384418991971425</v>
+      </c>
+      <c r="D58">
+        <v>0.03718039809034911</v>
+      </c>
+      <c r="E58">
+        <v>0.1661292902155928</v>
+      </c>
+      <c r="F58">
+        <v>0.02550531521390777</v>
+      </c>
+      <c r="G58">
+        <v>0.06332379011870436</v>
+      </c>
+      <c r="H58">
+        <v>-0.2174996472046948</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1162233328960667</v>
+        <v>-0.1367155487714347</v>
       </c>
       <c r="C59">
-        <v>-0.07999840757237232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.0860863378414827</v>
+      </c>
+      <c r="D59">
+        <v>-0.3656057820204873</v>
+      </c>
+      <c r="E59">
+        <v>0.02378335805573492</v>
+      </c>
+      <c r="F59">
+        <v>-0.02057301739391767</v>
+      </c>
+      <c r="G59">
+        <v>0.0368848559752721</v>
+      </c>
+      <c r="H59">
+        <v>-3.23667164751362e-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2028915977212719</v>
+        <v>-0.2322747289116456</v>
       </c>
       <c r="C60">
-        <v>-0.106601574368159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06885964568238122</v>
+      </c>
+      <c r="D60">
+        <v>0.03811054641638052</v>
+      </c>
+      <c r="E60">
+        <v>-0.08943625735770742</v>
+      </c>
+      <c r="F60">
+        <v>-0.080716456304426</v>
+      </c>
+      <c r="G60">
+        <v>-0.02322461671063744</v>
+      </c>
+      <c r="H60">
+        <v>-0.1792518032784604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07870878663719179</v>
+        <v>-0.08796290818124292</v>
       </c>
       <c r="C61">
-        <v>-0.05125311098202408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03512398863805369</v>
+      </c>
+      <c r="D61">
+        <v>0.04360613846113149</v>
+      </c>
+      <c r="E61">
+        <v>0.000851440104145971</v>
+      </c>
+      <c r="F61">
+        <v>-0.00383249689107369</v>
+      </c>
+      <c r="G61">
+        <v>0.0006843400076144671</v>
+      </c>
+      <c r="H61">
+        <v>0.07442310216498021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1277131723965414</v>
+        <v>-0.1392152454073609</v>
       </c>
       <c r="C62">
-        <v>-0.06880910636682658</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04244923024703285</v>
+      </c>
+      <c r="D62">
+        <v>0.0283491088297393</v>
+      </c>
+      <c r="E62">
+        <v>-0.05860720430311678</v>
+      </c>
+      <c r="F62">
+        <v>-0.02146204312483387</v>
+      </c>
+      <c r="G62">
+        <v>-0.02263222209689449</v>
+      </c>
+      <c r="H62">
+        <v>0.1667474298592675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05037701917700779</v>
+        <v>-0.05022058339774976</v>
       </c>
       <c r="C63">
-        <v>-0.02596449932501301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01389125137613288</v>
+      </c>
+      <c r="D63">
+        <v>0.0197049232567665</v>
+      </c>
+      <c r="E63">
+        <v>0.05257499021212701</v>
+      </c>
+      <c r="F63">
+        <v>0.01661686013358565</v>
+      </c>
+      <c r="G63">
+        <v>-0.02829411995984063</v>
+      </c>
+      <c r="H63">
+        <v>0.05942372176931005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1071331359254031</v>
+        <v>-0.1100856392135</v>
       </c>
       <c r="C64">
-        <v>-0.02763546361734912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.00489444154111179</v>
+      </c>
+      <c r="D64">
+        <v>0.03939639814495968</v>
+      </c>
+      <c r="E64">
+        <v>0.04798641969809438</v>
+      </c>
+      <c r="F64">
+        <v>-0.04023487241466865</v>
+      </c>
+      <c r="G64">
+        <v>-0.0491382315603919</v>
+      </c>
+      <c r="H64">
+        <v>0.05752713972622717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1204539906447737</v>
+        <v>-0.1272183603274892</v>
       </c>
       <c r="C65">
-        <v>-0.0627446304050585</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03942013669213441</v>
+      </c>
+      <c r="D65">
+        <v>-0.0004121958824075004</v>
+      </c>
+      <c r="E65">
+        <v>0.01346991215310017</v>
+      </c>
+      <c r="F65">
+        <v>-0.06590463073708945</v>
+      </c>
+      <c r="G65">
+        <v>-0.06147032396233956</v>
+      </c>
+      <c r="H65">
+        <v>-0.1251599679028323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1410774114652788</v>
+        <v>-0.1539048187547219</v>
       </c>
       <c r="C66">
-        <v>-0.0771687476858732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04484261257387303</v>
+      </c>
+      <c r="D66">
+        <v>0.101963233042019</v>
+      </c>
+      <c r="E66">
+        <v>-0.0253335087938079</v>
+      </c>
+      <c r="F66">
+        <v>-0.0170477079484746</v>
+      </c>
+      <c r="G66">
+        <v>-0.0435937213618881</v>
+      </c>
+      <c r="H66">
+        <v>0.1525426398317631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07181890143169403</v>
+        <v>-0.08314060791846183</v>
       </c>
       <c r="C67">
-        <v>-0.01433545433220811</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004025839927987643</v>
+      </c>
+      <c r="D67">
+        <v>0.03008457001267557</v>
+      </c>
+      <c r="E67">
+        <v>0.02672741059797388</v>
+      </c>
+      <c r="F67">
+        <v>-0.01189317426995387</v>
+      </c>
+      <c r="G67">
+        <v>0.009309131798019043</v>
+      </c>
+      <c r="H67">
+        <v>0.0263674898320881</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05822917286237939</v>
+        <v>-0.05794334083016437</v>
       </c>
       <c r="C68">
-        <v>-0.05099336680017205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05703019446065152</v>
+      </c>
+      <c r="D68">
+        <v>-0.2700108768626296</v>
+      </c>
+      <c r="E68">
+        <v>0.0369047232878492</v>
+      </c>
+      <c r="F68">
+        <v>-0.01579678521010465</v>
+      </c>
+      <c r="G68">
+        <v>0.01490054886459674</v>
+      </c>
+      <c r="H68">
+        <v>0.007672717100922492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05370439496068882</v>
+        <v>-0.05324984570399707</v>
       </c>
       <c r="C69">
-        <v>-0.01980868173726799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004973326990992585</v>
+      </c>
+      <c r="D69">
+        <v>0.01586598934641159</v>
+      </c>
+      <c r="E69">
+        <v>0.02457762974797446</v>
+      </c>
+      <c r="F69">
+        <v>0.009973940144330496</v>
+      </c>
+      <c r="G69">
+        <v>0.01468652986648816</v>
+      </c>
+      <c r="H69">
+        <v>0.05447365893867435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005385008659486204</v>
+        <v>-0.02675807730495899</v>
       </c>
       <c r="C70">
-        <v>0.004043615335364485</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003849779504542469</v>
+      </c>
+      <c r="D70">
+        <v>0.001283582297377197</v>
+      </c>
+      <c r="E70">
+        <v>-0.02378209214031855</v>
+      </c>
+      <c r="F70">
+        <v>-0.03118783572324077</v>
+      </c>
+      <c r="G70">
+        <v>0.01989595753166269</v>
+      </c>
+      <c r="H70">
+        <v>-0.04772916332385942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05762322223260145</v>
+        <v>-0.06020680621544997</v>
       </c>
       <c r="C71">
-        <v>-0.05010451819099374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05972320778492726</v>
+      </c>
+      <c r="D71">
+        <v>-0.2946828023163578</v>
+      </c>
+      <c r="E71">
+        <v>0.03551130896016671</v>
+      </c>
+      <c r="F71">
+        <v>-0.04202865246392554</v>
+      </c>
+      <c r="G71">
+        <v>0.004083735856874813</v>
+      </c>
+      <c r="H71">
+        <v>0.01426480065715997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1386383868324871</v>
+        <v>-0.1481001107827733</v>
       </c>
       <c r="C72">
-        <v>-0.06627801252988057</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03770030228201259</v>
+      </c>
+      <c r="D72">
+        <v>-0.01246191057391574</v>
+      </c>
+      <c r="E72">
+        <v>-0.1270622843847496</v>
+      </c>
+      <c r="F72">
+        <v>0.1484434788279613</v>
+      </c>
+      <c r="G72">
+        <v>-0.1123620092493745</v>
+      </c>
+      <c r="H72">
+        <v>0.02362300982255944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2709402384105716</v>
+        <v>-0.28715943301653</v>
       </c>
       <c r="C73">
-        <v>-0.1153961901386281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.04756788986991484</v>
+      </c>
+      <c r="D73">
+        <v>0.1006298499107046</v>
+      </c>
+      <c r="E73">
+        <v>-0.2074514653873702</v>
+      </c>
+      <c r="F73">
+        <v>-0.1304877507550818</v>
+      </c>
+      <c r="G73">
+        <v>0.1736765321257868</v>
+      </c>
+      <c r="H73">
+        <v>-0.4901726885403527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07967331376920782</v>
+        <v>-0.09231925580910626</v>
       </c>
       <c r="C74">
-        <v>-0.0796666079978967</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05968225263449815</v>
+      </c>
+      <c r="D74">
+        <v>0.03233333091923839</v>
+      </c>
+      <c r="E74">
+        <v>-0.005055510238565052</v>
+      </c>
+      <c r="F74">
+        <v>0.008322142497769072</v>
+      </c>
+      <c r="G74">
+        <v>0.04288350543366422</v>
+      </c>
+      <c r="H74">
+        <v>0.117620160371111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09419491922860559</v>
+        <v>-0.09997524806131565</v>
       </c>
       <c r="C75">
-        <v>-0.05613546356628529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02935731420775926</v>
+      </c>
+      <c r="D75">
+        <v>0.01383788303533813</v>
+      </c>
+      <c r="E75">
+        <v>0.01155700778068635</v>
+      </c>
+      <c r="F75">
+        <v>-0.02688597956415795</v>
+      </c>
+      <c r="G75">
+        <v>0.01562052399584646</v>
+      </c>
+      <c r="H75">
+        <v>0.1101831703353549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.129786736691622</v>
+        <v>-0.140253429141797</v>
       </c>
       <c r="C76">
-        <v>-0.08615206399177604</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05659649774739085</v>
+      </c>
+      <c r="D76">
+        <v>0.04980273620811469</v>
+      </c>
+      <c r="E76">
+        <v>0.03619119364173003</v>
+      </c>
+      <c r="F76">
+        <v>-0.04271015806808131</v>
+      </c>
+      <c r="G76">
+        <v>0.0002980988492883029</v>
+      </c>
+      <c r="H76">
+        <v>0.1629814552234976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.11535481223868</v>
+        <v>-0.1115280325968507</v>
       </c>
       <c r="C77">
-        <v>-0.02398207284279824</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.002613250285372861</v>
+      </c>
+      <c r="D77">
+        <v>0.02012756160111949</v>
+      </c>
+      <c r="E77">
+        <v>0.02787879143839074</v>
+      </c>
+      <c r="F77">
+        <v>-0.1274062174385745</v>
+      </c>
+      <c r="G77">
+        <v>-0.8860867859729986</v>
+      </c>
+      <c r="H77">
+        <v>-0.1648477420562641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09916088809817737</v>
+        <v>-0.138163966774526</v>
       </c>
       <c r="C78">
-        <v>-0.04091657969619519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03209392371278411</v>
+      </c>
+      <c r="D78">
+        <v>0.09192685235631461</v>
+      </c>
+      <c r="E78">
+        <v>0.05654450143364042</v>
+      </c>
+      <c r="F78">
+        <v>-0.02505435235063769</v>
+      </c>
+      <c r="G78">
+        <v>-0.06712258536979676</v>
+      </c>
+      <c r="H78">
+        <v>-0.04702911487016381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1467530797203224</v>
+        <v>-0.1522323201072958</v>
       </c>
       <c r="C79">
-        <v>-0.08259179064213955</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04587186985849712</v>
+      </c>
+      <c r="D79">
+        <v>0.02666052657699084</v>
+      </c>
+      <c r="E79">
+        <v>-0.01199193291613659</v>
+      </c>
+      <c r="F79">
+        <v>-0.01883387749783482</v>
+      </c>
+      <c r="G79">
+        <v>0.02229023711829678</v>
+      </c>
+      <c r="H79">
+        <v>0.1745373259580386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04538008885873773</v>
+        <v>-0.04326742097721158</v>
       </c>
       <c r="C80">
-        <v>-0.01685862673638023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006219305956118483</v>
+      </c>
+      <c r="D80">
+        <v>0.01846219805378546</v>
+      </c>
+      <c r="E80">
+        <v>-0.0066124634026471</v>
+      </c>
+      <c r="F80">
+        <v>0.004941186682317187</v>
+      </c>
+      <c r="G80">
+        <v>0.03543357513515726</v>
+      </c>
+      <c r="H80">
+        <v>0.04369869261601159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1159930538981805</v>
+        <v>-0.1202355315082397</v>
       </c>
       <c r="C81">
-        <v>-0.06665888778329318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.037018830451909</v>
+      </c>
+      <c r="D81">
+        <v>0.02316020046804582</v>
+      </c>
+      <c r="E81">
+        <v>0.02965362333626369</v>
+      </c>
+      <c r="F81">
+        <v>-0.01079399779503588</v>
+      </c>
+      <c r="G81">
+        <v>0.04738979572599639</v>
+      </c>
+      <c r="H81">
+        <v>0.1490553397464165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1303845804577917</v>
+        <v>-0.1312273745192358</v>
       </c>
       <c r="C82">
-        <v>-0.08120792779382102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04896497765759383</v>
+      </c>
+      <c r="D82">
+        <v>0.02651353854831657</v>
+      </c>
+      <c r="E82">
+        <v>-0.00711451522904417</v>
+      </c>
+      <c r="F82">
+        <v>-0.06004944187261575</v>
+      </c>
+      <c r="G82">
+        <v>0.03298953214052706</v>
+      </c>
+      <c r="H82">
+        <v>0.1985372779342603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08114970872749205</v>
+        <v>-0.08926386806759785</v>
       </c>
       <c r="C83">
-        <v>0.002545630083600673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0206229482880761</v>
+      </c>
+      <c r="D83">
+        <v>0.03641880469915303</v>
+      </c>
+      <c r="E83">
+        <v>0.02139899558598641</v>
+      </c>
+      <c r="F83">
+        <v>-0.04994966231569371</v>
+      </c>
+      <c r="G83">
+        <v>0.08743188400330362</v>
+      </c>
+      <c r="H83">
+        <v>-0.04139787115428088</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02892403290200959</v>
+        <v>-0.03772164569368019</v>
       </c>
       <c r="C84">
-        <v>-0.0255437189346484</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01869447489464834</v>
+      </c>
+      <c r="D84">
+        <v>0.02875322797729485</v>
+      </c>
+      <c r="E84">
+        <v>0.0174647501474287</v>
+      </c>
+      <c r="F84">
+        <v>0.05734824973723757</v>
+      </c>
+      <c r="G84">
+        <v>0.06498822511703668</v>
+      </c>
+      <c r="H84">
+        <v>0.01367757724218117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1187702227540117</v>
+        <v>-0.1199488579271186</v>
       </c>
       <c r="C85">
-        <v>-0.06292695039927571</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0316036488058824</v>
+      </c>
+      <c r="D85">
+        <v>0.02422001022464175</v>
+      </c>
+      <c r="E85">
+        <v>0.02491695536747223</v>
+      </c>
+      <c r="F85">
+        <v>-0.03955510383963441</v>
+      </c>
+      <c r="G85">
+        <v>0.01505820717407735</v>
+      </c>
+      <c r="H85">
+        <v>0.1474559806067213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04939604872746956</v>
+        <v>-0.05821328140475505</v>
       </c>
       <c r="C86">
-        <v>-0.02989819377804565</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.0188130264444645</v>
+      </c>
+      <c r="D86">
+        <v>0.02385519370957141</v>
+      </c>
+      <c r="E86">
+        <v>0.06667290794481565</v>
+      </c>
+      <c r="F86">
+        <v>-0.02132248602585279</v>
+      </c>
+      <c r="G86">
+        <v>0.01917823128897546</v>
+      </c>
+      <c r="H86">
+        <v>-0.008409171013899165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1213801817109451</v>
+        <v>-0.1223214160440319</v>
       </c>
       <c r="C87">
-        <v>-0.07097324808640482</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03466074003346897</v>
+      </c>
+      <c r="D87">
+        <v>0.07588175173806473</v>
+      </c>
+      <c r="E87">
+        <v>0.02198809270900523</v>
+      </c>
+      <c r="F87">
+        <v>0.0085289248540679</v>
+      </c>
+      <c r="G87">
+        <v>-0.1143387740982186</v>
+      </c>
+      <c r="H87">
+        <v>-0.02844335602380934</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05339991792723223</v>
+        <v>-0.06071485810267059</v>
       </c>
       <c r="C88">
-        <v>-0.02998642804216008</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01860486884933928</v>
+      </c>
+      <c r="D88">
+        <v>0.02831427090563669</v>
+      </c>
+      <c r="E88">
+        <v>0.02132827696571375</v>
+      </c>
+      <c r="F88">
+        <v>-0.005593455795998927</v>
+      </c>
+      <c r="G88">
+        <v>-0.007574357188690148</v>
+      </c>
+      <c r="H88">
+        <v>0.05665146864263175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07938557630479459</v>
+        <v>-0.09164296077227975</v>
       </c>
       <c r="C89">
-        <v>-0.06686580559283581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07791802478191424</v>
+      </c>
+      <c r="D89">
+        <v>-0.3426549892302942</v>
+      </c>
+      <c r="E89">
+        <v>0.07432400211565232</v>
+      </c>
+      <c r="F89">
+        <v>-0.07966850507154868</v>
+      </c>
+      <c r="G89">
+        <v>0.02049537147178202</v>
+      </c>
+      <c r="H89">
+        <v>0.005583294289742415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07217803631674381</v>
+        <v>-0.07873012058210885</v>
       </c>
       <c r="C90">
-        <v>-0.05942825197201664</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06739568431694883</v>
+      </c>
+      <c r="D90">
+        <v>-0.310751993269433</v>
+      </c>
+      <c r="E90">
+        <v>0.05988096652047512</v>
+      </c>
+      <c r="F90">
+        <v>0.0004515954626250417</v>
+      </c>
+      <c r="G90">
+        <v>0.003633134654645522</v>
+      </c>
+      <c r="H90">
+        <v>0.008862774706504456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08471303617359638</v>
+        <v>-0.08971448418751882</v>
       </c>
       <c r="C91">
-        <v>-0.05587664143245064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03314693288927695</v>
+      </c>
+      <c r="D91">
+        <v>0.03066049456134085</v>
+      </c>
+      <c r="E91">
+        <v>0.01592816865744867</v>
+      </c>
+      <c r="F91">
+        <v>-0.003144197169750543</v>
+      </c>
+      <c r="G91">
+        <v>0.05380660561177418</v>
+      </c>
+      <c r="H91">
+        <v>0.07777461204324668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07322348697583898</v>
+        <v>-0.07926503030332321</v>
       </c>
       <c r="C92">
-        <v>-0.07262286829754433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08111248763829554</v>
+      </c>
+      <c r="D92">
+        <v>-0.3413495065769589</v>
+      </c>
+      <c r="E92">
+        <v>0.04703375662421207</v>
+      </c>
+      <c r="F92">
+        <v>-0.03763998912605036</v>
+      </c>
+      <c r="G92">
+        <v>-0.006783078445267071</v>
+      </c>
+      <c r="H92">
+        <v>0.02571186133860243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06563343013988188</v>
+        <v>-0.07744430805326373</v>
       </c>
       <c r="C93">
-        <v>-0.06621065941406169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07868855515919157</v>
+      </c>
+      <c r="D93">
+        <v>-0.308217209121205</v>
+      </c>
+      <c r="E93">
+        <v>0.0387616855744244</v>
+      </c>
+      <c r="F93">
+        <v>-0.0412497126053295</v>
+      </c>
+      <c r="G93">
+        <v>-0.01137979704094196</v>
+      </c>
+      <c r="H93">
+        <v>-0.006584625033386588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1335906783473818</v>
+        <v>-0.1275016170048416</v>
       </c>
       <c r="C94">
-        <v>-0.06091738482982359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02242038894454187</v>
+      </c>
+      <c r="D94">
+        <v>0.0471936130101366</v>
+      </c>
+      <c r="E94">
+        <v>-0.001663682335335952</v>
+      </c>
+      <c r="F94">
+        <v>-0.02120577381200123</v>
+      </c>
+      <c r="G94">
+        <v>0.05138592415613092</v>
+      </c>
+      <c r="H94">
+        <v>0.09767565673435427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1188983491239168</v>
+        <v>-0.1294537837205313</v>
       </c>
       <c r="C95">
-        <v>-0.03694073956079864</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008357737044560293</v>
+      </c>
+      <c r="D95">
+        <v>0.06099130052248073</v>
+      </c>
+      <c r="E95">
+        <v>0.01435394316486699</v>
+      </c>
+      <c r="F95">
+        <v>-0.04777867215217738</v>
+      </c>
+      <c r="G95">
+        <v>0.009191365752633482</v>
+      </c>
+      <c r="H95">
+        <v>-0.02232627660887557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2029952815346306</v>
+        <v>-0.210314601102444</v>
       </c>
       <c r="C97">
-        <v>-0.04457839997620357</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.004004495355693508</v>
+      </c>
+      <c r="D97">
+        <v>-0.09613625709872185</v>
+      </c>
+      <c r="E97">
+        <v>-0.3611328544442082</v>
+      </c>
+      <c r="F97">
+        <v>0.8466940918249435</v>
+      </c>
+      <c r="G97">
+        <v>-0.08726169686788202</v>
+      </c>
+      <c r="H97">
+        <v>0.006587874209438609</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2442850075996039</v>
+        <v>-0.2750905179920936</v>
       </c>
       <c r="C98">
-        <v>-0.08152569704066047</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03421814142378422</v>
+      </c>
+      <c r="D98">
+        <v>0.06076241286921069</v>
+      </c>
+      <c r="E98">
+        <v>-0.1651890921499041</v>
+      </c>
+      <c r="F98">
+        <v>-0.09326085069330363</v>
+      </c>
+      <c r="G98">
+        <v>0.2664471221339934</v>
+      </c>
+      <c r="H98">
+        <v>-0.2180731231767432</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4628958647201115</v>
+        <v>-0.2822897064197406</v>
       </c>
       <c r="C99">
-        <v>0.871112467630637</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9365159164879692</v>
+      </c>
+      <c r="D99">
+        <v>-0.1296977121878217</v>
+      </c>
+      <c r="E99">
+        <v>0.06553279669783151</v>
+      </c>
+      <c r="F99">
+        <v>-0.04318187268199924</v>
+      </c>
+      <c r="G99">
+        <v>0.01269405717673105</v>
+      </c>
+      <c r="H99">
+        <v>0.06362081781122306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04060382669994849</v>
+        <v>-0.04863693290622747</v>
       </c>
       <c r="C101">
-        <v>-0.03227259313951231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02606504010444524</v>
+      </c>
+      <c r="D101">
+        <v>0.00493914241223008</v>
+      </c>
+      <c r="E101">
+        <v>0.05654229026873728</v>
+      </c>
+      <c r="F101">
+        <v>0.003300380777181742</v>
+      </c>
+      <c r="G101">
+        <v>0.006076578725909026</v>
+      </c>
+      <c r="H101">
+        <v>0.08579337781624463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
